--- a/TareasMAGB.xlsx
+++ b/TareasMAGB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mgomez\mgomez\INFO LABORAL\Docmuentos de trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4717788-78E3-4990-832F-9535905CB186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1870519-0D6E-49FD-B988-C3219DA5C256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7550" tabRatio="852" activeTab="4" xr2:uid="{24D5B02F-DC37-474E-95DC-9BB873F625CB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="382">
   <si>
     <t>SINPE-CCE-2023-02-0001</t>
   </si>
@@ -1386,6 +1386,15 @@
   </si>
   <si>
     <t>michel</t>
+  </si>
+  <si>
+    <t>cuenta sayda</t>
+  </si>
+  <si>
+    <t>lafise</t>
+  </si>
+  <si>
+    <t>sayda elizabeth narvaez guido</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1691,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1941,6 +1950,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2572,16 +2582,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
@@ -2656,16 +2666,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
@@ -2736,16 +2746,16 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="153"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="154"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
@@ -2814,16 +2824,16 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
@@ -2847,16 +2857,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
@@ -2985,16 +2995,16 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="150"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
@@ -3228,16 +3238,16 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="150"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
@@ -3692,16 +3702,16 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="150" t="s">
+      <c r="A56" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="150"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="151"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="151"/>
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
@@ -3790,16 +3800,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="150" t="s">
+      <c r="A61" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="150"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="150"/>
-      <c r="E61" s="150"/>
-      <c r="F61" s="150"/>
-      <c r="G61" s="150"/>
-      <c r="H61" s="150"/>
+      <c r="B61" s="151"/>
+      <c r="C61" s="151"/>
+      <c r="D61" s="151"/>
+      <c r="E61" s="151"/>
+      <c r="F61" s="151"/>
+      <c r="G61" s="151"/>
+      <c r="H61" s="151"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
@@ -3846,16 +3856,16 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="150" t="s">
+      <c r="A64" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="150"/>
-      <c r="C64" s="150"/>
-      <c r="D64" s="150"/>
-      <c r="E64" s="150"/>
-      <c r="F64" s="150"/>
-      <c r="G64" s="150"/>
-      <c r="H64" s="150"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="151"/>
+      <c r="D64" s="151"/>
+      <c r="E64" s="151"/>
+      <c r="F64" s="151"/>
+      <c r="G64" s="151"/>
+      <c r="H64" s="151"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
@@ -3922,16 +3932,16 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="150" t="s">
+      <c r="A68" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="150"/>
-      <c r="C68" s="150"/>
-      <c r="D68" s="150"/>
-      <c r="E68" s="150"/>
-      <c r="F68" s="150"/>
-      <c r="G68" s="150"/>
-      <c r="H68" s="150"/>
+      <c r="B68" s="151"/>
+      <c r="C68" s="151"/>
+      <c r="D68" s="151"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="151"/>
+      <c r="G68" s="151"/>
+      <c r="H68" s="151"/>
     </row>
     <row r="69" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="74" t="s">
@@ -4193,16 +4203,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
@@ -4339,16 +4349,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
@@ -4393,16 +4403,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="87" t="s">
@@ -4539,16 +4549,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
     </row>
     <row r="20" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
@@ -4700,16 +4710,16 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="150" t="s">
+      <c r="A27" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
@@ -4944,7 +4954,7 @@
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="O7:P7"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4999,13 +5009,13 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
       <c r="K2" s="1" t="s">
         <v>73</v>
       </c>
@@ -5037,16 +5047,16 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="159" t="s">
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
       <c r="K3" s="1" t="s">
         <v>88</v>
       </c>
@@ -5342,9 +5352,9 @@
         <v>98.092000000000013</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="162"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="163"/>
       <c r="K10" s="93">
         <v>45505</v>
       </c>
@@ -5370,12 +5380,12 @@
       <c r="C11" s="1"/>
       <c r="D11" s="66"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="160" t="str">
+      <c r="F11" s="161" t="str">
         <f ca="1">TEXT(TODAY(),"mmmm")</f>
         <v>marzo</v>
       </c>
-      <c r="G11" s="161"/>
-      <c r="H11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="163"/>
       <c r="I11" s="45" t="s">
         <v>146</v>
       </c>
@@ -5780,13 +5790,13 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="155" t="s">
+      <c r="A23" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="157"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="158"/>
       <c r="F23" s="43">
         <v>45424</v>
       </c>
@@ -6913,12 +6923,12 @@
       <c r="N72" s="9"/>
     </row>
     <row r="76" spans="11:14" x14ac:dyDescent="0.35">
-      <c r="K76" s="154" t="s">
+      <c r="K76" s="155" t="s">
         <v>349</v>
       </c>
-      <c r="L76" s="154"/>
-      <c r="M76" s="154"/>
-      <c r="N76" s="154"/>
+      <c r="L76" s="155"/>
+      <c r="M76" s="155"/>
+      <c r="N76" s="155"/>
     </row>
     <row r="77" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K77" s="1" t="s">
@@ -7126,7 +7136,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7150,8 +7160,8 @@
         <v>692.89189189189187</v>
       </c>
       <c r="F1" s="8">
-        <f>25637</f>
-        <v>25637</v>
+        <f>25637+1600</f>
+        <v>27237</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -7159,27 +7169,27 @@
       <c r="K1" s="2">
         <v>37</v>
       </c>
-      <c r="N1" s="159" t="s">
+      <c r="N1" s="160" t="s">
         <v>351</v>
       </c>
-      <c r="O1" s="159"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="159" t="s">
+      <c r="O1" s="160"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="R1" s="159"/>
+      <c r="R1" s="160"/>
       <c r="S1" s="134" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="166"/>
       <c r="N2" s="137">
         <v>45565</v>
       </c>
@@ -7205,10 +7215,10 @@
       <c r="A3" s="102"/>
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="172"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="173"/>
       <c r="K3" s="111">
         <f>D7*36.5</f>
         <v>2438.1999999999998</v>
@@ -7234,18 +7244,18 @@
       <c r="A4" s="100"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>296</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="169" t="s">
+      <c r="E4" s="169"/>
+      <c r="F4" s="170" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="170"/>
-      <c r="H4" s="166" t="s">
+      <c r="G4" s="171"/>
+      <c r="H4" s="167" t="s">
         <v>302</v>
       </c>
-      <c r="I4" s="166"/>
+      <c r="I4" s="167"/>
       <c r="N4" s="137">
         <v>45595</v>
       </c>
@@ -7321,12 +7331,16 @@
       <c r="E6" s="114">
         <v>4540</v>
       </c>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+      <c r="F6" s="117">
+        <v>-150</v>
+      </c>
+      <c r="G6" s="118">
+        <v>4540</v>
+      </c>
       <c r="H6" s="77"/>
       <c r="I6" s="77">
         <f>E6+G6</f>
-        <v>4540</v>
+        <v>9080</v>
       </c>
       <c r="K6" s="111"/>
       <c r="N6" s="137">
@@ -7359,21 +7373,19 @@
         <f>B7*0.2</f>
         <v>66.8</v>
       </c>
-      <c r="E7" s="114">
-        <v>1200</v>
-      </c>
+      <c r="E7" s="114"/>
       <c r="F7" s="117">
-        <f>B7*0.2</f>
-        <v>66.8</v>
+        <f>B7*0.4</f>
+        <v>133.6</v>
       </c>
       <c r="G7" s="118"/>
       <c r="H7" s="77">
         <f>D7+F7</f>
-        <v>133.6</v>
+        <v>200.39999999999998</v>
       </c>
       <c r="I7" s="77">
         <f t="shared" ref="I7:I19" si="1">E7+G7</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="K7" s="111"/>
       <c r="N7" s="137">
@@ -7400,20 +7412,18 @@
       <c r="B8" s="105"/>
       <c r="C8" s="105"/>
       <c r="D8" s="114"/>
-      <c r="E8" s="114">
-        <v>1200</v>
-      </c>
+      <c r="E8" s="114"/>
       <c r="F8" s="117"/>
       <c r="G8" s="118"/>
       <c r="H8" s="77"/>
       <c r="I8" s="77">
         <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="K8" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="175" t="s">
         <v>375</v>
       </c>
-      <c r="L8" s="174"/>
+      <c r="L8" s="175"/>
       <c r="M8" s="138"/>
       <c r="N8" s="137">
         <v>45656</v>
@@ -7580,22 +7590,17 @@
       </c>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
-      <c r="D12" s="114">
-        <v>20</v>
-      </c>
-      <c r="E12" s="114">
-        <f>5*37</f>
-        <v>185</v>
-      </c>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="117"/>
       <c r="G12" s="118"/>
       <c r="H12" s="77">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I12" s="77">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>310</v>
@@ -7626,9 +7631,7 @@
         <v>1500</v>
       </c>
       <c r="D13" s="114"/>
-      <c r="E13" s="114">
-        <v>100</v>
-      </c>
+      <c r="E13" s="114"/>
       <c r="F13" s="117"/>
       <c r="G13" s="118"/>
       <c r="H13" s="77">
@@ -7637,7 +7640,7 @@
       </c>
       <c r="I13" s="77">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>308</v>
@@ -7663,9 +7666,7 @@
       <c r="B14" s="105"/>
       <c r="C14" s="105"/>
       <c r="D14" s="114"/>
-      <c r="E14" s="114">
-        <v>100</v>
-      </c>
+      <c r="E14" s="114"/>
       <c r="F14" s="117">
         <v>40</v>
       </c>
@@ -7676,7 +7677,7 @@
       </c>
       <c r="I14" s="77">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>378</v>
@@ -7705,20 +7706,20 @@
       </c>
       <c r="C15" s="105"/>
       <c r="D15" s="114">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E15" s="114">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="F15" s="117"/>
       <c r="G15" s="118"/>
       <c r="H15" s="77">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I15" s="77">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K15" s="122"/>
       <c r="L15" s="123"/>
@@ -7870,27 +7871,27 @@
       </c>
       <c r="D20" s="114">
         <f t="shared" si="4"/>
-        <v>126.8</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="E20" s="114">
         <f t="shared" si="4"/>
-        <v>9995</v>
+        <v>7280</v>
       </c>
       <c r="F20" s="117">
         <f>SUM(F6:F19)</f>
-        <v>527.89200000000005</v>
+        <v>444.69200000000001</v>
       </c>
       <c r="G20" s="118">
         <f t="shared" si="4"/>
-        <v>185</v>
+        <v>4725</v>
       </c>
       <c r="H20" s="78">
         <f>SUM(H6:H19)</f>
-        <v>654.6</v>
+        <v>741.4</v>
       </c>
       <c r="I20" s="78">
         <f t="shared" si="4"/>
-        <v>10180</v>
+        <v>12005</v>
       </c>
       <c r="K20">
         <f>80*36.5</f>
@@ -7907,17 +7908,17 @@
       <c r="S20" s="111"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="157"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="158"/>
       <c r="L21" s="42"/>
       <c r="M21" s="42"/>
       <c r="N21" s="52"/>
@@ -8009,12 +8010,12 @@
         <v>2000</v>
       </c>
       <c r="I24" s="77"/>
-      <c r="K24" s="159" t="s">
+      <c r="K24" s="160" t="s">
         <v>358</v>
       </c>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
       <c r="O24" s="42"/>
       <c r="P24" s="141">
         <v>45688</v>
@@ -8096,14 +8097,14 @@
       <c r="B27" s="105"/>
       <c r="C27" s="105"/>
       <c r="D27" s="110">
-        <v>1281.6400000000001</v>
+        <v>1493</v>
       </c>
       <c r="E27" s="105"/>
       <c r="F27" s="105"/>
       <c r="G27" s="106"/>
       <c r="H27" s="77">
         <f t="shared" si="5"/>
-        <v>1281.6400000000001</v>
+        <v>1493</v>
       </c>
       <c r="I27" s="77"/>
       <c r="K27" s="119" t="s">
@@ -8183,7 +8184,7 @@
       <c r="C30" s="107"/>
       <c r="D30" s="78">
         <f>SUM(D23:D29)</f>
-        <v>8996.2999999999993</v>
+        <v>9207.66</v>
       </c>
       <c r="E30" s="107"/>
       <c r="F30" s="78">
@@ -8193,7 +8194,7 @@
       <c r="G30" s="108"/>
       <c r="H30" s="78">
         <f t="shared" si="5"/>
-        <v>14996.3</v>
+        <v>15207.66</v>
       </c>
       <c r="I30" s="78"/>
       <c r="K30" s="1"/>
@@ -8215,17 +8216,17 @@
       <c r="C31" s="77"/>
       <c r="D31" s="77">
         <f>D20*K1</f>
-        <v>4691.5999999999995</v>
+        <v>5431.6</v>
       </c>
       <c r="E31" s="105"/>
       <c r="F31" s="77">
         <f>F20*K1</f>
-        <v>19532.004000000001</v>
+        <v>16453.603999999999</v>
       </c>
       <c r="G31" s="106"/>
       <c r="H31" s="77">
         <f t="shared" si="5"/>
-        <v>24223.603999999999</v>
+        <v>21885.203999999998</v>
       </c>
       <c r="I31" s="77"/>
       <c r="K31" s="119"/>
@@ -8250,19 +8251,19 @@
       </c>
       <c r="D32" s="77">
         <f>D31+D30+E20</f>
-        <v>23682.899999999998</v>
+        <v>21919.260000000002</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>298</v>
       </c>
       <c r="F32" s="77">
         <f>F30+F31+G20</f>
-        <v>25717.004000000001</v>
+        <v>27178.603999999999</v>
       </c>
       <c r="G32" s="105"/>
       <c r="H32" s="77">
         <f t="shared" si="5"/>
-        <v>49399.903999999995</v>
+        <v>49097.864000000001</v>
       </c>
       <c r="I32" s="77"/>
       <c r="L32" s="111">
@@ -8277,23 +8278,23 @@
       </c>
       <c r="D33" s="75">
         <f>B1-D32</f>
-        <v>1954.1000000000022</v>
+        <v>3717.739999999998</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F33" s="75">
         <f>F1-F32</f>
-        <v>-80.004000000000815</v>
+        <v>58.39600000000064</v>
       </c>
       <c r="G33" s="105"/>
       <c r="H33" s="75">
         <f>D33+F33</f>
-        <v>1874.0960000000014</v>
+        <v>3776.1359999999986</v>
       </c>
       <c r="I33" s="77">
         <f>H33/K1</f>
-        <v>50.651243243243279</v>
+        <v>102.05772972972969</v>
       </c>
       <c r="Q33" s="2"/>
     </row>
@@ -8343,10 +8344,10 @@
         <v>700</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="H36" s="173" t="s">
+      <c r="H36" s="174" t="s">
         <v>355</v>
       </c>
-      <c r="I36" s="173"/>
+      <c r="I36" s="174"/>
       <c r="K36" s="144" t="s">
         <v>371</v>
       </c>
@@ -8448,6 +8449,10 @@
       <c r="I41" s="1">
         <v>1200</v>
       </c>
+      <c r="P41">
+        <f>4500/37</f>
+        <v>121.62162162162163</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H42" s="1" t="s">
@@ -8458,6 +8463,9 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C43" s="150">
+        <v>4200</v>
+      </c>
       <c r="H43" s="1" t="s">
         <v>356</v>
       </c>
@@ -8474,6 +8482,10 @@
       <c r="I44" s="1">
         <v>1200</v>
       </c>
+      <c r="P44">
+        <f>120*37</f>
+        <v>4440</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H45" s="9" t="s">
@@ -8506,8 +8518,12 @@
       <c r="I48" s="1">
         <v>1200</v>
       </c>
-    </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="P48">
+        <f>130*4</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H49" s="9" t="s">
         <v>316</v>
       </c>
@@ -8515,27 +8531,31 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:19" x14ac:dyDescent="0.35">
       <c r="L50" s="111"/>
       <c r="M50" s="111"/>
-    </row>
-    <row r="57" spans="8:15" x14ac:dyDescent="0.35">
-      <c r="N57" s="159"/>
-      <c r="O57" s="159"/>
-    </row>
-    <row r="58" spans="8:15" x14ac:dyDescent="0.35">
+      <c r="S50">
+        <f>231-150</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="8:19" x14ac:dyDescent="0.35">
+      <c r="N57" s="160"/>
+      <c r="O57" s="160"/>
+    </row>
+    <row r="58" spans="8:19" x14ac:dyDescent="0.35">
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:19" x14ac:dyDescent="0.35">
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="8:19" x14ac:dyDescent="0.35">
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:19" x14ac:dyDescent="0.35">
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
     </row>
@@ -8568,10 +8588,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51351FD3-523D-4DD5-B22A-36830AAF0EA0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B3:O27"/>
+  <dimension ref="B3:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8904,7 +8924,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>231</v>
       </c>
@@ -8928,8 +8948,11 @@
         <f>SUM(J5:J16)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -8947,13 +8970,29 @@
       <c r="L18" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="L19">
         <v>107251422</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P19">
+        <v>131087092</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="P20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="P21">
+        <v>75584573</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J24" t="s">
         <v>367</v>
       </c>
@@ -8961,7 +9000,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F25" t="s">
         <v>359</v>
       </c>
@@ -8972,7 +9011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F26">
         <v>359132461</v>
       </c>
@@ -8985,7 +9024,7 @@
         <v>5840</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="L27">
         <f>L26-2400</f>
         <v>3440</v>
@@ -9007,7 +9046,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9019,12 +9058,12 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="8">
-        <f>25637</f>
-        <v>25637</v>
+        <f>25637-4500</f>
+        <v>21137</v>
       </c>
       <c r="C1" s="41">
         <f>B1/K1</f>
-        <v>692.89189189189187</v>
+        <v>571.27027027027032</v>
       </c>
       <c r="F1">
         <f>24137+1500</f>
@@ -9038,39 +9077,39 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="166"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="102"/>
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="172"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="173"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="127"/>
       <c r="B4" s="127"/>
       <c r="C4" s="127"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>296</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="169" t="s">
+      <c r="E4" s="169"/>
+      <c r="F4" s="170" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="170"/>
-      <c r="H4" s="166" t="s">
+      <c r="G4" s="171"/>
+      <c r="H4" s="167" t="s">
         <v>302</v>
       </c>
-      <c r="I4" s="166"/>
+      <c r="I4" s="167"/>
       <c r="N4">
         <v>86307204</v>
       </c>
@@ -9115,9 +9154,7 @@
       <c r="B6" s="105"/>
       <c r="C6" s="105"/>
       <c r="D6" s="114"/>
-      <c r="E6" s="114">
-        <v>4540</v>
-      </c>
+      <c r="E6" s="114"/>
       <c r="F6" s="117"/>
       <c r="G6" s="118"/>
       <c r="H6" s="77">
@@ -9126,7 +9163,7 @@
       </c>
       <c r="I6" s="77">
         <f>E6+G6</f>
-        <v>4540</v>
+        <v>0</v>
       </c>
       <c r="K6" s="111"/>
     </row>
@@ -9135,23 +9172,23 @@
         <v>73</v>
       </c>
       <c r="B7" s="105">
-        <f>240+54+40</f>
-        <v>334</v>
+        <f>240+54+40+150</f>
+        <v>484</v>
       </c>
       <c r="C7" s="105"/>
       <c r="D7" s="114">
         <f>B7*0.2</f>
-        <v>66.8</v>
+        <v>96.800000000000011</v>
       </c>
       <c r="E7" s="114"/>
       <c r="F7" s="117">
         <f>B7*0.2</f>
-        <v>66.8</v>
+        <v>96.800000000000011</v>
       </c>
       <c r="G7" s="118"/>
       <c r="H7" s="77">
         <f t="shared" si="0"/>
-        <v>133.6</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="I7" s="77">
         <f t="shared" ref="I7:I19" si="1">E7+G7</f>
@@ -9177,10 +9214,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="176" t="s">
+      <c r="K8" s="177" t="s">
         <v>321</v>
       </c>
-      <c r="L8" s="176"/>
+      <c r="L8" s="177"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="62" t="s">
@@ -9202,16 +9239,14 @@
         <f>B9*0.1</f>
         <v>49.046000000000006</v>
       </c>
-      <c r="G9" s="118">
-        <v>200</v>
-      </c>
+      <c r="G9" s="118"/>
       <c r="H9" s="77">
         <f t="shared" si="0"/>
         <v>98.092000000000013</v>
       </c>
       <c r="I9" s="77">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>322</v>
@@ -9555,7 +9590,7 @@
       </c>
       <c r="B20" s="77">
         <f t="shared" ref="B20:I20" si="4">SUM(B6:B19)</f>
-        <v>1648.46</v>
+        <v>1798.46</v>
       </c>
       <c r="C20" s="77">
         <f t="shared" si="4"/>
@@ -9563,27 +9598,27 @@
       </c>
       <c r="D20" s="114">
         <f t="shared" si="4"/>
-        <v>199.846</v>
+        <v>229.846</v>
       </c>
       <c r="E20" s="114">
         <f t="shared" si="4"/>
-        <v>7140</v>
+        <v>2600</v>
       </c>
       <c r="F20" s="117">
         <f t="shared" si="4"/>
-        <v>483.846</v>
+        <v>513.846</v>
       </c>
       <c r="G20" s="118">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H20" s="78">
         <f>SUM(H6:H19)</f>
-        <v>683.69200000000001</v>
+        <v>743.69200000000001</v>
       </c>
       <c r="I20" s="78">
         <f t="shared" si="4"/>
-        <v>7340</v>
+        <v>2600</v>
       </c>
       <c r="L20" s="42"/>
       <c r="M20" s="70"/>
@@ -9596,17 +9631,17 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="157"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="158"/>
       <c r="L21" s="42"/>
       <c r="M21" s="52"/>
       <c r="N21" s="52"/>
@@ -9863,17 +9898,17 @@
       <c r="C31" s="77"/>
       <c r="D31" s="77">
         <f>D20*K1</f>
-        <v>7394.3019999999997</v>
+        <v>8504.3019999999997</v>
       </c>
       <c r="E31" s="105"/>
       <c r="F31" s="77">
         <f>F20*K1</f>
-        <v>17902.302</v>
+        <v>19012.302</v>
       </c>
       <c r="G31" s="106"/>
       <c r="H31" s="77">
         <f t="shared" si="5"/>
-        <v>25296.603999999999</v>
+        <v>27516.603999999999</v>
       </c>
       <c r="I31" s="77"/>
       <c r="K31" s="128"/>
@@ -9889,19 +9924,19 @@
       </c>
       <c r="D32" s="77">
         <f>D31+D30+E20</f>
-        <v>23692.302</v>
+        <v>20262.302</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>298</v>
       </c>
       <c r="F32" s="77">
         <f>F30+F31+G20</f>
-        <v>24102.302</v>
+        <v>25012.302</v>
       </c>
       <c r="G32" s="105"/>
       <c r="H32" s="77">
         <f t="shared" si="5"/>
-        <v>47794.603999999999</v>
+        <v>45274.603999999999</v>
       </c>
       <c r="I32" s="77"/>
       <c r="M32" s="128"/>
@@ -9920,23 +9955,23 @@
       </c>
       <c r="D33" s="75">
         <f>B1-D32</f>
-        <v>1944.6980000000003</v>
+        <v>874.69800000000032</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F33" s="75">
         <f>F1-F32</f>
-        <v>1534.6980000000003</v>
+        <v>624.69800000000032</v>
       </c>
       <c r="G33" s="105"/>
       <c r="H33" s="75">
         <f>D33+F33</f>
-        <v>3479.3960000000006</v>
+        <v>1499.3960000000006</v>
       </c>
       <c r="I33" s="77">
         <f>H33/K1</f>
-        <v>94.037729729729747</v>
+        <v>40.524216216216232</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -9973,7 +10008,7 @@
       <c r="D37" s="2"/>
       <c r="F37" s="111">
         <f>D33/37</f>
-        <v>52.559405405405414</v>
+        <v>23.640486486486495</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
